--- a/dada-mail-translation-de-formal.xlsx
+++ b/dada-mail-translation-de-formal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannes/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannes/Documents/Projekte/dada_mail_foundation_email_templates-translator-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1603,9 +1603,6 @@
     <t>Um den Inhaber der Mailing-Liste zu kontaktieren, verwenden Sie bitte die unten angegebene Adresse:</t>
   </si>
   <si>
-    <t>&lt;!-- tmpl_var list_settings.list_name --&gt; – Sie haben die Mailing-Liste bereits abonniert</t>
-  </si>
-  <si>
     <t>zur Mailing-Liste:</t>
   </si>
   <si>
@@ -1986,6 +1983,9 @@
   </si>
   <si>
     <t>unsubscribe links in the mailing list messages that you will receive.</t>
+  </si>
+  <si>
+    <t>&lt;!-- tmpl_var list_settings.list_name --&gt; Mailing-Liste bereits abonniert</t>
   </si>
 </sst>
 </file>
@@ -2342,18 +2342,18 @@
   <dimension ref="A1:G373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="105.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="112.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -2494,15 +2494,15 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>37</v>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
@@ -2538,7 +2538,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2546,7 +2546,7 @@
         <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>498</v>
@@ -2637,7 +2637,7 @@
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2656,10 +2656,10 @@
         <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2763,68 +2763,68 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2978,7 +2978,7 @@
         <v>71</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3022,7 +3022,7 @@
         <v>72</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3066,7 +3066,7 @@
         <v>77</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3077,7 +3077,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3099,7 +3099,7 @@
         <v>83</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3176,7 +3176,7 @@
         <v>91</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3184,10 +3184,10 @@
         <v>90</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3195,10 +3195,10 @@
         <v>90</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3206,10 +3206,10 @@
         <v>90</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3217,10 +3217,10 @@
         <v>90</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3228,10 +3228,10 @@
         <v>90</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3275,7 +3275,7 @@
         <v>97</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -3319,7 +3319,7 @@
         <v>101</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -3401,57 +3401,57 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>539</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -3484,7 +3484,7 @@
         <v>112</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -3533,21 +3533,21 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>595</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>380</v>
@@ -3572,7 +3572,7 @@
         <v>118</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -3594,7 +3594,7 @@
         <v>120</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -3605,7 +3605,7 @@
         <v>121</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -3649,7 +3649,7 @@
         <v>125</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -3687,7 +3687,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>117</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>120</v>
@@ -3709,7 +3709,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>121</v>
@@ -3720,13 +3720,13 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>131</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -3888,10 +3888,10 @@
         <v>145</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -3902,7 +3902,7 @@
         <v>143</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -3921,7 +3921,7 @@
         <v>145</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>401</v>
@@ -3932,10 +3932,10 @@
         <v>145</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3943,10 +3943,10 @@
         <v>145</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3979,7 +3979,7 @@
         <v>30</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -4012,7 +4012,7 @@
         <v>148</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -4023,7 +4023,7 @@
         <v>149</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -4064,10 +4064,10 @@
         <v>151</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -4100,7 +4100,7 @@
         <v>157</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -4111,7 +4111,7 @@
         <v>158</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -4163,10 +4163,10 @@
         <v>160</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -4185,10 +4185,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -4196,10 +4196,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -4207,10 +4207,10 @@
         <v>166</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -4218,10 +4218,10 @@
         <v>166</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -4254,7 +4254,7 @@
         <v>157</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -4309,7 +4309,7 @@
         <v>174</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -4383,10 +4383,10 @@
         <v>180</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -4394,10 +4394,10 @@
         <v>180</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -4521,10 +4521,10 @@
         <v>200</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>202</v>
       </c>
@@ -4551,10 +4551,10 @@
         <v>202</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -4579,7 +4579,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>206</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -4601,7 +4601,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>211</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>213</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -4664,7 +4664,7 @@
         <v>214</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -4708,7 +4708,7 @@
         <v>218</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -4785,7 +4785,7 @@
         <v>440</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -4793,10 +4793,10 @@
         <v>224</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -4804,10 +4804,10 @@
         <v>224</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -4840,7 +4840,7 @@
         <v>227</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -4862,7 +4862,7 @@
         <v>229</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -4884,7 +4884,7 @@
         <v>230</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -4950,7 +4950,7 @@
         <v>236</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -5049,7 +5049,7 @@
         <v>241</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -5060,7 +5060,7 @@
         <v>229</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -5126,7 +5126,7 @@
         <v>236</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -5258,7 +5258,7 @@
         <v>249</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -5288,10 +5288,10 @@
         <v>252</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -5299,10 +5299,10 @@
         <v>252</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -5321,10 +5321,10 @@
         <v>252</v>
       </c>
       <c r="B270" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -5332,13 +5332,13 @@
         <v>252</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>253</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>255</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -5379,7 +5379,7 @@
         <v>256</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -5533,7 +5533,7 @@
         <v>269</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -5610,7 +5610,7 @@
         <v>275</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -5621,7 +5621,7 @@
         <v>276</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -5789,7 +5789,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>293</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>255</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -5819,7 +5819,7 @@
         <v>295</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -5904,10 +5904,10 @@
         <v>301</v>
       </c>
       <c r="B323" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="C323" s="3" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -6039,7 +6039,7 @@
         <v>306</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -6072,7 +6072,7 @@
         <v>309</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -6127,7 +6127,7 @@
         <v>314</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>516</v>
+        <v>642</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -6149,7 +6149,7 @@
         <v>315</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -6160,7 +6160,7 @@
         <v>316</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -6171,7 +6171,7 @@
         <v>317</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -6182,7 +6182,7 @@
         <v>312</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -6193,7 +6193,7 @@
         <v>319</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -6215,7 +6215,7 @@
         <v>320</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -6237,7 +6237,7 @@
         <v>322</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -6391,7 +6391,7 @@
         <v>336</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -6424,7 +6424,7 @@
         <v>339</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">

--- a/dada-mail-translation-de-formal.xlsx
+++ b/dada-mail-translation-de-formal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Formal" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="661">
   <si>
     <t>Message Accepted to, &lt;!-- tmpl_var list_settings.list_name --&gt;, subject, &lt;!-- tmpl_var message_subject --&gt;</t>
   </si>
@@ -1751,9 +1751,6 @@
     <t>Sie haben die Löschung aus folgender Mailing-Liste angefragt:</t>
   </si>
   <si>
-    <t>aufzunehmen. Diese E-Mail-Adresse hat die Mailing-Liste eigentlich bereits abonniert, daher müssen Sie sich nicht noch einmal anmelden. Diese Nachricht wurde zum Schutz Ihrer Daten gesendet und dient zur Information.</t>
-  </si>
-  <si>
     <t>Um den Besitzer der E-Mail-Mailing-Liste zu kontaktieren, benutzen Sie bitte die unten angegebene E-Mail-Adresse:</t>
   </si>
   <si>
@@ -1986,13 +1983,70 @@
   </si>
   <si>
     <t>&lt;!-- tmpl_var list_settings.list_name --&gt; Mailing-Liste bereits abonniert</t>
+  </si>
+  <si>
+    <t>you_are_already_subscribed_message.html</t>
+  </si>
+  <si>
+    <t>Already Subscribed</t>
+  </si>
+  <si>
+    <t>you are already a member of</t>
+  </si>
+  <si>
+    <t>A subscription request for this email address and mailing list was just made.</t>
+  </si>
+  <si>
+    <t>Since this email address is already subscribed,</t>
+  </si>
+  <si>
+    <t>there's no need request a subscription again.</t>
+  </si>
+  <si>
+    <t>This message has been sent to protect your privacy</t>
+  </si>
+  <si>
+    <t>and only allow this information to only be available to you.</t>
+  </si>
+  <si>
+    <t>Bereits Mitglied</t>
+  </si>
+  <si>
+    <t>Sie sind bereits Mitglied der Mailing-Liste</t>
+  </si>
+  <si>
+    <t>Eine Abonnementanfrage für diese E-Mail-Adresse und Mailing-Liste wurde gerade gesendet.</t>
+  </si>
+  <si>
+    <t>Da diese E-Mail-Adresse die Mailing-Liste bereits abonniert hat,</t>
+  </si>
+  <si>
+    <t>aufzunehmen. Da diese E-Mail-Adresse die Mailing-Liste bereits abonniert hat, müssen Sie sich nicht noch einmal anmelden. Diese Nachricht wurde zum Schutz Ihrer Daten gesendet und dient zur Information.</t>
+  </si>
+  <si>
+    <t>müssen Sie sich nicht noch einmal anmelden.</t>
+  </si>
+  <si>
+    <t>und dient zur Information.</t>
+  </si>
+  <si>
+    <t>Diese Nachricht wurde zum Schutz Ihrer Daten nur an Sie gesendet</t>
+  </si>
+  <si>
+    <t>mailing_list_message-old_school.txt</t>
+  </si>
+  <si>
+    <t>Mailing list information, including how to remove yourself, is located at the end of this message.</t>
+  </si>
+  <si>
+    <t>Mailing-Listen Informationen, auch wie Sie sich abmelden, befindet sich am Ende dieser Nachricht.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2021,6 +2075,13 @@
       <color theme="1"/>
       <name val="Calibri (Textkörper)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2039,14 +2100,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2058,12 +2121,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2339,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G373"/>
+  <dimension ref="A1:G388"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2494,15 +2560,15 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>37</v>
@@ -2510,10 +2576,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
@@ -2656,10 +2722,10 @@
         <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2763,68 +2829,68 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3066,7 +3132,7 @@
         <v>77</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3077,7 +3143,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3184,10 +3250,10 @@
         <v>90</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3195,10 +3261,10 @@
         <v>90</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3206,10 +3272,10 @@
         <v>90</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3217,10 +3283,10 @@
         <v>90</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3228,10 +3294,10 @@
         <v>90</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3319,7 +3385,7 @@
         <v>101</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -3484,7 +3550,7 @@
         <v>112</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -3533,21 +3599,21 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>594</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>380</v>
@@ -3572,7 +3638,7 @@
         <v>118</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -3594,7 +3660,7 @@
         <v>120</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -3605,7 +3671,7 @@
         <v>121</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -3687,134 +3753,134 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>599</v>
+        <v>658</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>117</v>
+        <v>659</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>384</v>
+        <v>660</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>599</v>
+        <v>658</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>599</v>
+        <v>658</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>387</v>
+        <v>545</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>598</v>
+        <v>658</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>597</v>
+        <v>126</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>609</v>
+        <v>545</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>658</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>391</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>658</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>392</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>658</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>546</v>
+        <v>384</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>658</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>598</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>598</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>598</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>129</v>
+        <v>597</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>136</v>
+        <v>596</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>397</v>
+        <v>608</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3822,10 +3888,10 @@
         <v>129</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -3833,10 +3899,10 @@
         <v>129</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3844,10 +3910,10 @@
         <v>129</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>400</v>
+        <v>546</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -3855,10 +3921,10 @@
         <v>129</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -3866,632 +3932,626 @@
         <v>129</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>616</v>
+        <v>135</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>618</v>
+        <v>397</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>619</v>
+        <v>138</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>620</v>
+        <v>139</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>622</v>
+        <v>400</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>621</v>
+        <v>140</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>623</v>
+        <v>401</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>30</v>
+        <v>615</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>518</v>
+        <v>616</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>34</v>
+        <v>617</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>35</v>
+        <v>404</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>148</v>
+        <v>618</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>524</v>
+        <v>401</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>149</v>
+        <v>619</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>525</v>
+        <v>621</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>152</v>
+        <v>620</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>407</v>
+        <v>622</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>579</v>
+        <v>30</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>410</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>372</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>165</v>
+        <v>408</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>164</v>
+        <v>409</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>162</v>
+        <v>578</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>548</v>
+        <v>156</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>549</v>
+        <v>410</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>161</v>
+        <v>100</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>165</v>
+        <v>372</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>581</v>
+        <v>157</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>583</v>
+        <v>158</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>584</v>
+        <v>159</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>587</v>
+        <v>411</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>585</v>
+        <v>161</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>588</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>413</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>164</v>
+        <v>412</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>157</v>
+        <v>548</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>414</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>171</v>
+        <v>580</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>415</v>
+        <v>581</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>166</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>166</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>166</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>167</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B179" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>167</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>167</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>167</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>167</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>167</v>
+      </c>
+      <c r="B184" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B185" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="186" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>173</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B186" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C186" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>173</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B187" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>173</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B188" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C188" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>173</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B189" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C189" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>180</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B190" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C190" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>180</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B191" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C191" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>180</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B192" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C192" s="3" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>180</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>180</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>181</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>181</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>181</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="64" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>181</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>181</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G191" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>181</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G192" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G193" t="s">
-        <v>187</v>
+        <v>629</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>192</v>
+        <v>630</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -4499,403 +4559,409 @@
         <v>181</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>449</v>
+        <v>183</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>452</v>
+        <v>188</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C199" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G199" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>552</v>
+        <v>190</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>553</v>
+        <v>190</v>
+      </c>
+      <c r="G200" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>451</v>
+        <v>191</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G201" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>449</v>
+        <v>192</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>551</v>
+        <v>193</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>454</v>
+        <v>551</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>372</v>
+        <v>552</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>571</v>
+        <v>451</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>554</v>
+        <v>449</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>430</v>
+        <v>551</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>572</v>
+        <v>455</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>457</v>
+        <v>100</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>458</v>
+        <v>570</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>440</v>
+        <v>100</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>634</v>
+        <v>372</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>635</v>
+        <v>218</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>637</v>
+        <v>571</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>636</v>
+        <v>219</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>638</v>
+        <v>461</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>372</v>
+        <v>458</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>526</v>
+        <v>461</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>84</v>
+        <v>440</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>361</v>
+        <v>633</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>230</v>
+        <v>634</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>231</v>
+        <v>635</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>465</v>
+        <v>637</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -4903,10 +4969,10 @@
         <v>225</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -4914,10 +4980,10 @@
         <v>225</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>467</v>
+        <v>372</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -4925,10 +4991,10 @@
         <v>225</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>468</v>
+        <v>576</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -4936,21 +5002,21 @@
         <v>225</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>225</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -4958,10 +5024,10 @@
         <v>225</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -4969,10 +5035,10 @@
         <v>225</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>364</v>
+        <v>555</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -4980,98 +5046,98 @@
         <v>225</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>372</v>
+        <v>468</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>471</v>
+        <v>556</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>526</v>
+        <v>364</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>361</v>
+        <v>436</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -5079,10 +5145,10 @@
         <v>237</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -5090,10 +5156,10 @@
         <v>237</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -5101,10 +5167,10 @@
         <v>237</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>232</v>
+        <v>76</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>466</v>
+        <v>372</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -5112,21 +5178,21 @@
         <v>237</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>237</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>556</v>
+        <v>471</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -5134,21 +5200,21 @@
         <v>237</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>237</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>434</v>
+        <v>526</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -5156,10 +5222,10 @@
         <v>237</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>437</v>
+        <v>361</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -5167,10 +5233,10 @@
         <v>237</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -5178,10 +5244,10 @@
         <v>237</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>363</v>
+        <v>465</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -5189,10 +5255,10 @@
         <v>237</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>87</v>
+        <v>232</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -5200,98 +5266,98 @@
         <v>237</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>88</v>
+        <v>235</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>439</v>
+        <v>556</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>578</v>
+        <v>438</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>432</v>
+        <v>363</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>250</v>
+        <v>87</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>635</v>
+        <v>88</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>637</v>
+        <v>436</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -5299,10 +5365,10 @@
         <v>252</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>641</v>
+        <v>245</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>638</v>
+        <v>439</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -5310,10 +5376,10 @@
         <v>252</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -5321,10 +5387,10 @@
         <v>252</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>611</v>
+        <v>247</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>612</v>
+        <v>441</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -5332,395 +5398,395 @@
         <v>252</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>610</v>
+        <v>248</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>613</v>
+        <v>442</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>473</v>
+        <v>577</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>100</v>
+        <v>232</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>372</v>
+        <v>432</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>559</v>
+        <v>443</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>256</v>
+        <v>634</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>558</v>
+        <v>636</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>257</v>
+        <v>640</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>474</v>
+        <v>637</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>74</v>
+        <v>610</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>358</v>
+        <v>611</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>259</v>
+        <v>609</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>475</v>
+        <v>612</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>445</v>
+        <v>372</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>446</v>
+        <v>559</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>477</v>
+        <v>558</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>372</v>
+        <v>474</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>503</v>
+        <v>444</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>478</v>
+        <v>358</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>502</v>
+        <v>475</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>270</v>
+        <v>154</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>505</v>
+        <v>477</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>272</v>
+        <v>100</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>486</v>
+        <v>372</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>175</v>
+        <v>264</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>100</v>
+        <v>267</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>372</v>
+        <v>502</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>559</v>
+        <v>479</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>281</v>
+        <v>175</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>506</v>
+        <v>447</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>484</v>
+        <v>372</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -5728,274 +5794,274 @@
         <v>278</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>559</v>
+        <v>508</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>560</v>
+        <v>487</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>512</v>
+        <v>485</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>445</v>
+        <v>489</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>154</v>
+        <v>294</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>561</v>
+        <v>295</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>277</v>
+        <v>154</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>285</v>
+        <v>561</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>508</v>
+        <v>562</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -6003,460 +6069,625 @@
         <v>303</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>372</v>
+        <v>506</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>563</v>
+        <v>483</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>573</v>
+        <v>507</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>487</v>
+        <v>372</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>642</v>
+        <v>563</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>100</v>
+        <v>307</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>372</v>
+        <v>494</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>574</v>
+        <v>372</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>564</v>
+        <v>495</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>565</v>
+        <v>514</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>100</v>
+        <v>286</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>372</v>
+        <v>487</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>575</v>
+        <v>641</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>321</v>
+        <v>100</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>448</v>
+        <v>372</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>515</v>
+        <v>654</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>423</v>
+        <v>564</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>324</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>326</v>
+        <v>642</v>
+      </c>
+      <c r="B357" s="5" t="s">
+        <v>643</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>424</v>
+        <v>650</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>324</v>
+        <v>642</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>327</v>
+        <v>644</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>327</v>
+        <v>651</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>324</v>
+        <v>642</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>328</v>
+        <v>645</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>328</v>
+        <v>652</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>324</v>
+        <v>642</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>329</v>
+        <v>646</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>329</v>
+        <v>653</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>324</v>
+        <v>642</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>330</v>
+        <v>647</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>330</v>
+        <v>655</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>333</v>
+        <v>642</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>23</v>
+        <v>648</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>333</v>
+        <v>642</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>331</v>
+        <v>649</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>367</v>
+        <v>656</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>346</v>
+        <v>521</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>334</v>
+        <v>100</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>425</v>
+        <v>574</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>523</v>
+        <v>448</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>614</v>
+        <v>515</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
+        <v>324</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>324</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>324</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>324</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>333</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>333</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>333</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>341</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>341</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>341</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>341</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>341</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>341</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>341</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
         <v>344</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B387" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>344</v>
+      </c>
+      <c r="B388" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C373" s="3" t="s">
+      <c r="C388" s="3" t="s">
         <v>429</v>
       </c>
     </row>

--- a/dada-mail-translation-de-formal.xlsx
+++ b/dada-mail-translation-de-formal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Formal" sheetId="1" r:id="rId1"/>
@@ -306,9 +306,6 @@
     <t>invite_message.html</t>
   </si>
   <si>
-    <t>Click Here to Join,</t>
-  </si>
-  <si>
     <t>You Have Been Invited!</t>
   </si>
   <si>
@@ -1612,9 +1609,6 @@
     <t>Mailing-Liste:</t>
   </si>
   <si>
-    <t>Klicken Sie hier, um sich die Mailing-Liste zu abonnieren</t>
-  </si>
-  <si>
     <t>von folgender Mailing-Liste abgemeldet wurde:</t>
   </si>
   <si>
@@ -2040,6 +2034,12 @@
   </si>
   <si>
     <t>Mailing-Listen Informationen, auch wie Sie sich abmelden, befindet sich am Ende dieser Nachricht.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abonniere die Liste: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subscribe to, </t>
   </si>
 </sst>
 </file>
@@ -2407,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2461,7 +2461,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2494,7 +2494,7 @@
         <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2560,15 +2560,15 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>37</v>
@@ -2576,10 +2576,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>41</v>
@@ -2593,7 +2593,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2604,7 +2604,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2612,10 +2612,10 @@
         <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2659,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2681,7 +2681,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2703,12 +2703,12 @@
         <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>17</v>
@@ -2719,13 +2719,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2758,7 +2758,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2769,7 +2769,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2780,7 +2780,7 @@
         <v>63</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2802,7 +2802,7 @@
         <v>23</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="64" x14ac:dyDescent="0.2">
@@ -2813,7 +2813,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2824,73 +2824,73 @@
         <v>65</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2953,7 +2953,7 @@
         <v>66</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>79</v>
@@ -2967,7 +2967,7 @@
         <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3000,7 +3000,7 @@
         <v>80</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3011,7 +3011,7 @@
         <v>27</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3033,7 +3033,7 @@
         <v>68</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3044,7 +3044,7 @@
         <v>71</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3088,7 +3088,7 @@
         <v>72</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3099,7 +3099,7 @@
         <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3110,7 +3110,7 @@
         <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3121,7 +3121,7 @@
         <v>76</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3132,7 +3132,7 @@
         <v>77</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3143,7 +3143,7 @@
         <v>78</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3154,7 +3154,7 @@
         <v>82</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -3165,7 +3165,7 @@
         <v>83</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3176,7 +3176,7 @@
         <v>84</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3187,7 +3187,7 @@
         <v>85</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3198,7 +3198,7 @@
         <v>86</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3209,7 +3209,7 @@
         <v>87</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3220,7 +3220,7 @@
         <v>88</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3228,10 +3228,10 @@
         <v>90</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3239,10 +3239,10 @@
         <v>90</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>91</v>
+        <v>660</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>519</v>
+        <v>659</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3250,10 +3250,10 @@
         <v>90</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3261,10 +3261,10 @@
         <v>90</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3272,10 +3272,10 @@
         <v>90</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3283,10 +3283,10 @@
         <v>90</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3294,10 +3294,10 @@
         <v>90</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="32" x14ac:dyDescent="0.2">
@@ -3305,10 +3305,10 @@
         <v>89</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -3316,10 +3316,10 @@
         <v>89</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -3327,10 +3327,10 @@
         <v>89</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -3338,10 +3338,10 @@
         <v>89</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -3349,117 +3349,117 @@
         <v>89</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>40</v>
@@ -3467,216 +3467,216 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>537</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>109</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="C101" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>18</v>
@@ -3687,51 +3687,51 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="C117" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>31</v>
@@ -3742,62 +3742,62 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>656</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>658</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>31</v>
@@ -3808,7 +3808,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>18</v>
@@ -3819,326 +3819,326 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>128</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B135" s="3" t="s">
-        <v>130</v>
-      </c>
       <c r="C135" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>31</v>
@@ -4149,7 +4149,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>32</v>
@@ -4160,2535 +4160,2535 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>150</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="C161" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>154</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="C165" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>159</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="C170" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>166</v>
+      </c>
+      <c r="B179" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="C179" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>172</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="C186" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>629</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
+        <v>180</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="C195" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G199" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G200" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G201" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>198</v>
+      </c>
+      <c r="B205" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B205" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="C205" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
+        <v>201</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>203</v>
-      </c>
       <c r="C207" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
+        <v>204</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B211" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="C211" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>206</v>
+      </c>
+      <c r="B212" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B212" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="C212" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>210</v>
+      </c>
+      <c r="B215" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B215" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="C215" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>215</v>
+      </c>
+      <c r="B220" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B220" s="3" t="s">
-        <v>217</v>
-      </c>
       <c r="C220" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B230" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C230" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>224</v>
+      </c>
+      <c r="B232" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B232" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="C232" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>236</v>
+      </c>
+      <c r="B248" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B248" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="C248" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>252</v>
+      </c>
+      <c r="B280" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B280" s="3" t="s">
-        <v>254</v>
-      </c>
       <c r="C280" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
+        <v>261</v>
+      </c>
+      <c r="B291" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B291" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="C291" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
+        <v>265</v>
+      </c>
+      <c r="B295" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B295" s="3" t="s">
-        <v>267</v>
-      </c>
       <c r="C295" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
+        <v>272</v>
+      </c>
+      <c r="B302" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B302" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="C302" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>277</v>
+      </c>
+      <c r="B307" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B307" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="C307" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
+        <v>292</v>
+      </c>
+      <c r="B321" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B321" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="C321" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
+        <v>298</v>
+      </c>
+      <c r="B327" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B327" s="3" t="s">
-        <v>300</v>
-      </c>
       <c r="C327" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
+        <v>300</v>
+      </c>
+      <c r="B330" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B330" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="C330" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
+        <v>303</v>
+      </c>
+      <c r="B341" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B341" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="C341" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
+        <v>307</v>
+      </c>
+      <c r="B346" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B346" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="C346" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
+        <v>312</v>
+      </c>
+      <c r="B351" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B351" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="C351" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
+        <v>640</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B358" s="3" t="s">
-        <v>644</v>
-      </c>
       <c r="C358" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
+        <v>317</v>
+      </c>
+      <c r="B364" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B364" s="3" t="s">
-        <v>319</v>
-      </c>
       <c r="C364" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
+        <v>323</v>
+      </c>
+      <c r="B371" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B371" s="3" t="s">
-        <v>325</v>
-      </c>
       <c r="C371" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="378" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
